--- a/Mybatis.xlsx
+++ b/Mybatis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t>第1种： 通过在查询的sql语句中定义</t>
     </r>
     <r>
@@ -65,6 +70,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t>第2种： 通过&lt;</t>
     </r>
     <r>
@@ -105,6 +115,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">&lt;result </t>
     </r>
     <r>
@@ -131,6 +148,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">&lt;result </t>
     </r>
     <r>
@@ -160,6 +184,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t>第1种：</t>
     </r>
     <r>
@@ -181,10 +210,51 @@
     </r>
   </si>
   <si>
-    <t>string wildcardname = “%smi%”; list&lt;name&gt; names = mapper.selectlike(wildcardname); &lt;select id=”selectlike”&gt; select * from foo where bar like #{value} &lt;/select&gt;</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <t>string wildcardname = “%smi%”; list&lt;name&gt; names =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> mapper.selectlike(wildcardname)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; &lt;select id=”selectlike”&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">select * from foo where bar like #{value} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/select&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t>第2种：</t>
     </r>
     <r>
@@ -206,7 +276,43 @@
     </r>
   </si>
   <si>
-    <t>string wildcardname = “smi”; list&lt;name&gt; names = mapper.selectlike(wildcardname); &lt;select id=”selectlike”&gt; select * from foo where bar like "%"#{value}"%" &lt;/select&gt;</t>
+    <r>
+      <t xml:space="preserve">string wildcardname = “smi”; list&lt;name&gt; names = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mapper.selectlike(wildcardname)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t>; &lt;select id=”selectlike”&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> select * from foo where bar like "%"#{value}"%"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/select&gt;</t>
+    </r>
   </si>
   <si>
     <t>4、通常一个Xml映射文件，都会写一个Dao接口与之对应，请问，这个Dao接口的工作原理是什么？Dao接口里的方法，参数不同时，方法能重载吗？</t>
@@ -219,6 +325,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t>Mapper接口是没有实现类的，当调用接口方法时，</t>
     </r>
     <r>
@@ -241,6 +352,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>举例：</t>
     </r>
     <r>
@@ -284,6 +402,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t>Dao接口的工作原理是JDK动态代理</t>
     </r>
     <r>
@@ -309,6 +433,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t>Mybatis使用</t>
     </r>
     <r>
@@ -348,6 +477,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t>分页插件</t>
     </r>
     <r>
@@ -373,6 +508,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t>第一种是使用</t>
     </r>
     <r>
@@ -404,6 +544,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>第二种是使用</t>
     </r>
     <r>
@@ -520,6 +667,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t>//</t>
     </r>
     <r>
@@ -537,6 +689,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>&lt;select id="selectUser"resultMap="BaseResultMap"&gt; select * fromuser_user_t</t>
     </r>
     <r>
@@ -563,6 +722,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">第2种： </t>
     </r>
     <r>
@@ -589,6 +753,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t>Mybatis动态sql可以让我们在Xml映射文件内，</t>
     </r>
     <r>
@@ -628,6 +797,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Mybatis提供了9种动态sql标签：</t>
     </r>
     <r>
@@ -654,6 +830,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>其执行原理为，使用OGNL从</t>
     </r>
     <r>
@@ -729,12 +912,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,14 +952,98 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,7 +1058,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,114 +1089,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,19 +1104,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,163 +1260,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,39 +1295,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1179,17 +1322,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,13 +1348,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,148 +1400,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1744,8 +1920,8 @@
   <sheetPr/>
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/Mybatis.xlsx
+++ b/Mybatis.xlsx
@@ -211,6 +211,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t>string wildcardname = “%smi%”; list&lt;name&gt; names =</t>
     </r>
     <r>
@@ -277,6 +282,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">string wildcardname = “smi”; list&lt;name&gt; names = </t>
     </r>
     <r>
@@ -913,9 +923,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -951,23 +961,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -981,84 +977,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,7 +993,66 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,6 +1065,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1094,6 +1080,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1104,187 +1114,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,30 +1305,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1367,7 +1353,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1395,6 +1396,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1403,10 +1413,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1415,133 +1425,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1920,8 +1930,8 @@
   <sheetPr/>
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/Mybatis.xlsx
+++ b/Mybatis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>1、#{}和${}的区别是什么？</t>
   </si>
@@ -915,6 +915,32 @@
   </si>
   <si>
     <t>&lt;mapper namespace="com.lcb.mapping.userMapper"&gt; &lt;!--association 一对一关联查询 --&gt; &lt;select id="getClass" parameterType="int" resultMap="ClassesResultMap"&gt; select * from class c,teacher t where c.teacher_id=t.t_id and c.c_id=#{id} &lt;/select&gt; &lt;resultMap type="com.lcb.user.Classes" id="ClassesResultMap"&gt; &lt;!-- 实体类的字段名和数据表的字段名映射 --&gt; &lt;id property="id" column="c_id"/&gt; &lt;result property="name" column="c_name"/&gt; &lt;association property="teacher" javaType="com.lcb.user.Teacher"&gt; &lt;id property="id" column="t_id"/&gt; &lt;result property="name" column="t_name"/&gt; &lt;/association&gt; &lt;/resultMap&gt; &lt;!--collection 一对多关联查询 --&gt; &lt;select id="getClass2" parameterType="int" resultMap="ClassesResultMap2"&gt; select * from class c,teacher t,student s where c.teacher_id=t.t_id and c.c_id=s.class_id and c.c_id=#{id} &lt;/select&gt; &lt;resultMap type="com.lcb.user.Classes" id="ClassesResultMap2"&gt; &lt;id property="id" column="c_id"/&gt; &lt;result property="name" column="c_name"/&gt; &lt;association property="teacher" javaType="com.lcb.user.Teacher"&gt; &lt;id property="id" column="t_id"/&gt; &lt;result property="name" column="t_name"/&gt; &lt;/association&gt; &lt;collection property="student" ofType="com.lcb.user.Student"&gt; &lt;id property="id" column="s_id"/&gt; &lt;result property="name" column="s_name"/&gt; &lt;/collection&gt; &lt;/resultMap&gt; &lt;/mapper&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、主从分离</t>
+    </r>
+  </si>
+  <si>
+    <t>配置两个数据源</t>
+  </si>
+  <si>
+    <t>通过Spring AOP在业务层实现读写分离</t>
+  </si>
+  <si>
+    <t>在DAO层调用前定义切面，利用Spring的AbstractRoutingDataSource解决多数据源的问题</t>
+  </si>
+  <si>
+    <t>，实现动态选择数据源</t>
   </si>
 </sst>
 </file>
@@ -924,10 +950,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,30 +988,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -999,6 +1018,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1007,7 +1048,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,52 +1102,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,7 +1117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1089,20 +1124,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1114,31 +1146,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,151 +1314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,6 +1337,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1334,54 +1414,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1400,8 +1432,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1413,10 +1445,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1425,133 +1457,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1930,8 +1962,8 @@
   <sheetPr/>
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2399,19 +2431,33 @@
       <c r="A97" s="4"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="4"/>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="4"/>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" s="4"/>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" s="4"/>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" s="4"/>
+      <c r="B102" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="4"/>

--- a/Mybatis.xlsx
+++ b/Mybatis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -918,6 +918,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="-apple-system"/>
+        <charset val="134"/>
+      </rPr>
       <t>14</t>
     </r>
     <r>
@@ -948,10 +954,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -995,16 +1001,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,23 +1016,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,6 +1031,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1054,9 +1053,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,23 +1085,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,36 +1138,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1146,6 +1152,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1158,175 +1182,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,21 +1405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1437,6 +1428,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1445,10 +1451,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1457,133 +1463,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1962,8 +1968,8 @@
   <sheetPr/>
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/Mybatis.xlsx
+++ b/Mybatis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010"/>
+    <workbookView windowWidth="24525" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
   <si>
     <t>1、#{}和${}的区别是什么？</t>
   </si>
@@ -328,33 +328,173 @@
     <t>4、通常一个Xml映射文件，都会写一个Dao接口与之对应，请问，这个Dao接口的工作原理是什么？Dao接口里的方法，参数不同时，方法能重载吗？</t>
   </si>
   <si>
-    <t>Dao接口，就是人们常说的Mapper接口，接口的全限名，就是映射文件中的namespace的值，</t>
-  </si>
-  <si>
-    <t>接口的方法名，就是映射文件中MappedStatement的id值，接口方法内的参数，就是传递给sql的参数。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Mapper接口是没有实现类的，当调用接口方法时，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口全限名+方法名拼接字符串作为key值，可唯一定位一个MappedStatement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Source Code Pro"/>
+    <r>
+      <t>Dao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口，就是人们常说的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Mapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口，接口的全限名，就是映射文件中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t>namespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的值，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>接口的方法名，就是映射文件中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MappedStatement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值，接口方法内的参数，就是传递给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的参数。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口是没有实现类的，当调用接口方法时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口全限名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法名拼接字符串作为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值，可唯一定位一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MappedStatement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -439,78 +579,88 @@
     </r>
   </si>
   <si>
-    <t>5、Mybatis是如何进行分页的？分页插件的原理是什么？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Mybatis使用</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RowBounds对象进行分页</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，它是针对</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ResultSet结果集执行的内存分页</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，而非物理分页，可以在sql内直接书写带有物理分页的参数来完成物理分页功能，也可以使用分页插件来完成物理分页。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分页插件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的基本原理是使用Mybatis提供的插件接口，实现自定义插件，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在插件的拦截方法内拦截待执行的sql，然后重写sql，根据dialect方言，添加对应的物理分页语句和物理分页参数。</t>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="-apple-system"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Mybatis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是如何进行分页的？分页插件的原理是什么？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>就是在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t>StatementHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之前进行拦截，对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MappedStatement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行一系列的操作（大致就是拼上分页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
   </si>
   <si>
@@ -911,12 +1061,18 @@
     <t>Hibernate属于全自动ORM映射工具，使用Hibernate查询关联对象或者关联集合对象时，可以根据对象关系模型直接获取，所以它是全自动的。而Mybatis在查询关联对象或关联集合对象时，需要手动编写sql来完成，所以，称之为半自动ORM映射工具。</t>
   </si>
   <si>
-    <t>13、 一对一、一对多的关联查询 ？</t>
-  </si>
-  <si>
-    <t>&lt;mapper namespace="com.lcb.mapping.userMapper"&gt; &lt;!--association 一对一关联查询 --&gt; &lt;select id="getClass" parameterType="int" resultMap="ClassesResultMap"&gt; select * from class c,teacher t where c.teacher_id=t.t_id and c.c_id=#{id} &lt;/select&gt; &lt;resultMap type="com.lcb.user.Classes" id="ClassesResultMap"&gt; &lt;!-- 实体类的字段名和数据表的字段名映射 --&gt; &lt;id property="id" column="c_id"/&gt; &lt;result property="name" column="c_name"/&gt; &lt;association property="teacher" javaType="com.lcb.user.Teacher"&gt; &lt;id property="id" column="t_id"/&gt; &lt;result property="name" column="t_name"/&gt; &lt;/association&gt; &lt;/resultMap&gt; &lt;!--collection 一对多关联查询 --&gt; &lt;select id="getClass2" parameterType="int" resultMap="ClassesResultMap2"&gt; select * from class c,teacher t,student s where c.teacher_id=t.t_id and c.c_id=s.class_id and c.c_id=#{id} &lt;/select&gt; &lt;resultMap type="com.lcb.user.Classes" id="ClassesResultMap2"&gt; &lt;id property="id" column="c_id"/&gt; &lt;result property="name" column="c_name"/&gt; &lt;association property="teacher" javaType="com.lcb.user.Teacher"&gt; &lt;id property="id" column="t_id"/&gt; &lt;result property="name" column="t_name"/&gt; &lt;/association&gt; &lt;collection property="student" ofType="com.lcb.user.Student"&gt; &lt;id property="id" column="s_id"/&gt; &lt;result property="name" column="s_name"/&gt; &lt;/collection&gt; &lt;/resultMap&gt; &lt;/mapper&gt;</t>
-  </si>
-  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -924,6 +1080,113 @@
         <rFont val="-apple-system"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一对一、一对多的关联查询</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="-apple-system"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;mapper namespace="com.lcb.mapping.userMapper"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!--association 一对一关联查询 --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;select id="getClass" parameterType="int" resultMap="ClassesResultMap"&gt;</t>
+  </si>
+  <si>
+    <t>select * from class c,teacher t where c.teacher_id=t.t_id and c.c_id=#{id}</t>
+  </si>
+  <si>
+    <t>&lt;resultMap type="com.lcb.user.Classes" id="ClassesResultMap"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- 实体类的字段名和数据表的字段名映射 --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;id property="id" column="c_id"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;result property="name" column="c_name"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;association property="teacher" javaType="com.lcb.user.Teacher"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;id property="id" column="t_id"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;result property="name" column="t_name"/&gt; &lt;/association&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/resultMap&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!--collection 一对多关联查询 --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;select id="getClass2" parameterType="int" resultMap="ClassesResultMap2"&gt;</t>
+  </si>
+  <si>
+    <t>select * from class c,teacher t,student s where c.teacher_id=t.t_id and c.c_id=s.class_id and c.c_id=#{id}</t>
+  </si>
+  <si>
+    <t>&lt;resultMap type="com.lcb.user.Classes" id="ClassesResultMap2"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;result property="name" column="t_name"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/association&gt;</t>
+  </si>
+  <si>
+    <t>&lt;collection property="student" ofType="com.lcb.user.Student"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;id property="id" column="s_id"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;result property="name" column="s_name"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/collection&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/mapper&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="-apple-system"/>
+        <charset val="134"/>
+      </rPr>
       <t>14</t>
     </r>
     <r>
@@ -947,6 +1210,166 @@
   </si>
   <si>
     <t>，实现动态选择数据源</t>
+  </si>
+  <si>
+    <r>
+      <t>mybatis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作流程图</t>
+    </r>
+  </si>
+  <si>
+    <t>Configuration：MyBatis所有的配置信息都维持在Configuration对象之中。</t>
+  </si>
+  <si>
+    <t>sqlsession：是一次与数据库的会话。在你每次访问数据库时都需要创建它，完成必要数据库增删改查功能</t>
+  </si>
+  <si>
+    <t>sqlsession只能由SqlsessionFactory的openSession方法来完成创建</t>
+  </si>
+  <si>
+    <r>
+      <t>executor：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MyBatis执行器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，通过源码我们可以看到，executor其实只是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DefaultSqlSession的一个属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而executor的每个操作都需要一个对象，那就</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是MappedStatement</t>
+    </r>
+  </si>
+  <si>
+    <t>MappedStatement：这个东西个人看来就是用来封装sql（&lt;select|update|delete|insert&gt;节点的封装）和返回结果的</t>
+  </si>
+  <si>
+    <r>
+      <t>id是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mapper.xml中的那个id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，即具体执行的是哪个sql</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>parameterMap（应该就是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mapper.xml中的那个parameterMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，即</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sql中变量的类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>resultMaps（大概就是你需要的返回对象类型）</t>
   </si>
 </sst>
 </file>
@@ -955,11 +1378,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,11 +1416,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1005,6 +1432,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1016,14 +1458,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1032,7 +1466,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1046,31 +1488,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1085,25 +1513,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1122,16 +1550,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1152,7 +1580,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,13 +1604,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,19 +1652,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,31 +1736,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,97 +1760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,15 +1771,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1370,6 +1789,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1381,26 +1824,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1429,17 +1852,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1451,10 +1879,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1463,137 +1891,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1612,11 +2040,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1677,6 +2111,137 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="24355425"/>
+          <a:ext cx="8839200" cy="8067675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="33842325"/>
+          <a:ext cx="4552950" cy="3762375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="6781800"/>
+          <a:ext cx="6410325" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1966,13 +2531,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="M124" sqref="M124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
@@ -2132,7 +2697,7 @@
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2158,7 +2723,7 @@
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2171,14 +2736,12 @@
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="3"/>
@@ -2192,364 +2755,692 @@
     <row r="44" spans="2:2">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="2" t="s">
-        <v>34</v>
-      </c>
+    <row r="45" spans="2:2">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="4"/>
-      <c r="C49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="4"/>
-      <c r="C50" t="s">
-        <v>38</v>
-      </c>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="4"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="3" t="s">
-        <v>41</v>
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="7"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="3" t="s">
-        <v>43</v>
+      <c r="B55" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="4"/>
+      <c r="C57" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4"/>
       <c r="C58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" s="4"/>
-      <c r="C59" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="2" t="s">
-        <v>46</v>
+      <c r="A60" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="B63" s="8"/>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="4"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="3" t="s">
-        <v>53</v>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="4"/>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="7"/>
-      <c r="C71" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="7"/>
-      <c r="C72" s="5"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="4"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="4"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="8"/>
+      <c r="C79" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="8"/>
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="3"/>
+      <c r="B87" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4"/>
+      <c r="B89" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="4"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="4"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="2" t="s">
-        <v>68</v>
+      <c r="A91" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="4"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="4"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="2" t="s">
+    <row r="104" spans="2:2">
+      <c r="B104" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="3" t="s">
+    <row r="105" spans="2:6">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="4"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="2" t="s">
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="4"/>
-      <c r="B99" t="s">
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="4"/>
-      <c r="B100" t="s">
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="4"/>
-      <c r="B101" t="s">
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="4"/>
-      <c r="B102" t="s">
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="4"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="4"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="4"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="4"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="4"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="4"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="4"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="4"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="4"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="4"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="4"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="4"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="4"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="4"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="4"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="4"/>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="4"/>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="4"/>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="4"/>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="4"/>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="4"/>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="4"/>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="4"/>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="4"/>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="4"/>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="4"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="4"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="4"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="4"/>
+      <c r="B136" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="4"/>
+      <c r="B137" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="4"/>
+      <c r="B138" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="4"/>
+      <c r="B139" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="4"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="4"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="4"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="4"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="4"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="4"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="4"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="4"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="4"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="4"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="4"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="4"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="4"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="4"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="4"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="4"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="4"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="4"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="4"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="4"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="4"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="4"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="4"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="4"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="4"/>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4">
+      <c r="D193" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3">
+      <c r="C198" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
